--- a/output.xlsx
+++ b/output.xlsx
@@ -453,17 +453,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>dsf</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>xyz</t>
+          <t>ppp</t>
         </is>
       </c>
       <c r="B4" t="n">
